--- a/7347_Robot_BOM.xlsx
+++ b/7347_Robot_BOM.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>FTC  Robot Bill of Materials</t>
   </si>
@@ -81,15 +81,6 @@
   </si>
   <si>
     <t>QTY 1       electrical tape</t>
-  </si>
-  <si>
-    <t>QTY 1       cardboard</t>
-  </si>
-  <si>
-    <t>QTY 1       spraypaint</t>
-  </si>
-  <si>
-    <t>Game Manual Pt 1:  &lt;R12&gt;</t>
   </si>
   <si>
     <t>QTY 1       acrylic glue</t>
@@ -487,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -675,7 +666,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -684,10 +675,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -695,36 +686,24 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>23</v>
+      <c r="B18" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="19" spans="1:6" ht="12.75">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>6</v>
-      </c>
+    <row r="20" spans="1:6" ht="12.75">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>

--- a/7347_Robot_BOM.xlsx
+++ b/7347_Robot_BOM.xlsx
@@ -23,16 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>FTC  Robot Bill of Materials</t>
   </si>
   <si>
     <t>Team Number:</t>
-  </si>
-  <si>
-    <t>Please list any non-TETRIX® or non-MATRIX® parts and provide this list to the hardware inspector.    
-(Tip: make two copies, keep one in your Engineering Notebook, bring the other to Hardware Inspection).</t>
   </si>
   <si>
     <t>Part Description</t>
@@ -168,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,9 +189,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,16 +469,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.140625" customWidth="1"/>
-    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -519,58 +512,60 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="69.75" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1">
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -579,10 +574,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -591,10 +586,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -606,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -618,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -627,10 +622,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -642,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -654,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -663,10 +658,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -674,24 +669,18 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>6</v>
+      <c r="B17" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>6</v>
-      </c>
+    <row r="18" spans="1:6" ht="12.75">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -703,16 +692,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="12.75">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/7347_Robot_BOM.xlsx
+++ b/7347_Robot_BOM.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohrbaugh\Desktop\stuff\FTC\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>FTC  Robot Bill of Materials</t>
   </si>
@@ -46,9 +41,6 @@
     <t>QTY 1       surgical tubing</t>
   </si>
   <si>
-    <t>QTY 10     zip ties</t>
-  </si>
-  <si>
     <t>QTY 6       LEGO pieces</t>
   </si>
   <si>
@@ -58,9 +50,6 @@
     <t>QTY 2       linear slides</t>
   </si>
   <si>
-    <t>Game Manual Pt 1: &lt;R04.c&gt;</t>
-  </si>
-  <si>
     <t>QTY 1       gaffer's tape</t>
   </si>
   <si>
@@ -70,9 +59,6 @@
     <t>QTY 1       ferrite choke</t>
   </si>
   <si>
-    <t>Game Manual Pt 1: &lt;R08.b&gt;</t>
-  </si>
-  <si>
     <t>QTY 1       overhead transparency</t>
   </si>
   <si>
@@ -89,6 +75,18 @@
   </si>
   <si>
     <t>QTY 1       Gorilla Tape</t>
+  </si>
+  <si>
+    <t>QTY 16     zip ties</t>
+  </si>
+  <si>
+    <t>QTY 1       painter's tape</t>
+  </si>
+  <si>
+    <t>Game Manual Pt 1:  &lt;R04.c&gt;</t>
+  </si>
+  <si>
+    <t>Game Manual Pt 1:  &lt;R08.b&gt;</t>
   </si>
 </sst>
 </file>
@@ -164,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,6 +187,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,7 +283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,7 +460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,7 +471,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -550,7 +549,7 @@
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -562,10 +561,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -574,10 +573,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -586,7 +585,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
@@ -598,7 +597,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -610,10 +609,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -622,7 +621,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>5</v>
@@ -634,7 +633,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>5</v>
@@ -646,10 +645,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -658,7 +657,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>5</v>
@@ -670,7 +669,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>5</v>
@@ -680,7 +679,13 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75">
+    <row r="18" spans="1:6">
+      <c r="A18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>

--- a/7347_Robot_BOM.xlsx
+++ b/7347_Robot_BOM.xlsx
@@ -41,15 +41,9 @@
     <t>QTY 1       surgical tubing</t>
   </si>
   <si>
-    <t>QTY 6       LEGO pieces</t>
-  </si>
-  <si>
     <t>Game Manual Pt 1:  &lt;R01&gt;</t>
   </si>
   <si>
-    <t>QTY 2       linear slides</t>
-  </si>
-  <si>
     <t>QTY 1       gaffer's tape</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>QTY 1       Gorilla Tape</t>
   </si>
   <si>
-    <t>QTY 16     zip ties</t>
-  </si>
-  <si>
     <t>QTY 1       painter's tape</t>
   </si>
   <si>
@@ -87,6 +78,15 @@
   </si>
   <si>
     <t>Game Manual Pt 1:  &lt;R08.b&gt;</t>
+  </si>
+  <si>
+    <t>QTY 20     zip ties</t>
+  </si>
+  <si>
+    <t>QTY 25     LEGO pieces</t>
+  </si>
+  <si>
+    <t>QTY 4       linear slides</t>
   </si>
 </sst>
 </file>
@@ -183,11 +183,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,7 +471,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -482,10 +482,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -549,7 +549,7 @@
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -561,10 +561,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -573,10 +573,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -585,7 +585,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -609,10 +609,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -621,7 +621,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>5</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>5</v>
@@ -645,10 +645,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -657,7 +657,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>5</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>5</v>
@@ -680,8 +680,8 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="12" t="s">
-        <v>20</v>
+      <c r="A18" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>5</v>

--- a/7347_Robot_BOM.xlsx
+++ b/7347_Robot_BOM.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>FTC  Robot Bill of Materials</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>QTY 4       linear slides</t>
+  </si>
+  <si>
+    <t>QTY 1       duct tape</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,7 +474,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -691,7 +694,13 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="12.75">
+    <row r="19" spans="1:6">
+      <c r="A19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>

--- a/7347_Robot_BOM.xlsx
+++ b/7347_Robot_BOM.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>FTC  Robot Bill of Materials</t>
   </si>
@@ -90,13 +90,19 @@
   </si>
   <si>
     <t>QTY 1       duct tape</t>
+  </si>
+  <si>
+    <t>Game Manual Pt 1:  &lt;R09.b&gt;</t>
+  </si>
+  <si>
+    <t>QTY 4       AM-2964 motors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -121,6 +127,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,6 +203,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -539,11 +552,11 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
+      <c r="A6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -551,10 +564,10 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2"/>
@@ -564,10 +577,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -576,10 +589,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -588,10 +601,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -600,7 +613,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -612,10 +625,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -624,10 +637,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -636,7 +649,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>5</v>
@@ -648,10 +661,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -660,10 +673,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -671,10 +684,10 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="2"/>
@@ -683,8 +696,8 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="10" t="s">
-        <v>17</v>
+      <c r="A18" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>5</v>
@@ -696,7 +709,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>5</v>
@@ -705,6 +718,14 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/7347_Robot_BOM.xlsx
+++ b/7347_Robot_BOM.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>FTC  Robot Bill of Materials</t>
   </si>
@@ -121,6 +121,9 @@
   <si>
     <t>Game Manual Pt 1:  &lt;R04.a&gt;</t>
   </si>
+  <si>
+    <t>QTY 6       paper</t>
+  </si>
 </sst>
 </file>
 
@@ -213,10 +216,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -238,6 +237,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,71 +523,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="48" style="6" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="17.28515625" style="6"/>
+    <col min="1" max="1" width="43.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="48" style="4" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="17.28515625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>7347</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -593,177 +596,177 @@
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -811,11 +814,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
